--- a/21년 miracle-morning/06월/6월의 Miracle.xlsx
+++ b/21년 miracle-morning/06월/6월의 Miracle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\6월\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\21년 miracle-morning\06월\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,17 +646,17 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>44348</v>
       </c>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>44349</v>
       </c>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>44350</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>44351</v>
       </c>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44352</v>
       </c>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>44353</v>
       </c>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>44354</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>44355</v>
       </c>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>44356</v>
       </c>
@@ -927,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>44357</v>
       </c>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>44358</v>
       </c>
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>44359</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>44360</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>44361</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>44362</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>44363</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>44364</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>44365</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>44366</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>44367</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>44368</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>44369</v>
       </c>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>44370</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>44371</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>44372</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>44373</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>44374</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>44375</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>44376</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>44377</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
@@ -1519,7 +1519,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1529,7 +1529,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
